--- a/네이버뉴스/data/100.xlsx
+++ b/네이버뉴스/data/100.xlsx
@@ -458,12 +458,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>이재명 "박근혜 사면? 상황파악 안 돼…말하기 부적절"</t>
+          <t>윤석열 "충청·전북 新산업벨트 조성…현금 뿌리기 아닌 선별복지할 것"</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021.12.24 09:32</t>
+          <t>2021.12.26 17:13</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -476,12 +476,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>안철수 “이석기도 나오는데 李·朴 사면해야…완전 주객전도”</t>
+          <t>김건희 울먹이며 직접 사과...尹 낮은 지지율 반등할까?</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021.12.24 09:32</t>
+          <t>2021.12.26 17:12</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -494,12 +494,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[속보]정부, 특별사면 임시국무회의서 심의…국민 대화합 취지</t>
+          <t>"일자리가 최고의 복지"…윤석열 '국민행복시대' 공약…구체성 떨어진다는 지적도</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021.12.24 09:31</t>
+          <t>2021.12.26 17:12</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -512,12 +512,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>北, '김정은 10년' 찬양…"현 시대 강국론 새롭게 정립"</t>
+          <t>이재명 "박근혜 사면, 文대통령 혼자 짊어지겠다 생각한 듯"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021.12.24 09:31</t>
+          <t>2021.12.26 17:11</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -530,12 +530,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>한중, 사드 갈등 이후 첫 '전략대화'…최종건 "올림픽 성공개최 기원"</t>
+          <t>[윤석열 발언록] "다주택자 물량 나오게 세제 합리화할 것"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021.12.24 09:31</t>
+          <t>2021.12.26 17:11</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -548,192 +548,192 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>이재명 "박근혜 사면, 상황 파악 안돼…말씀드리기 부적절"</t>
+          <t>김건희 사과에 이준석 "위축되지 말고 필요한 역할해야"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021.12.24 09:30</t>
+          <t>2021.12.26 17:11</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>정부, 임시국무회의서 박근혜 특별사면안 심사</t>
+          <t>尹 지지율 급락 속 '김건희 대국민사과'…반등 계기될까</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021.12.24 09:30</t>
+          <t>2021.12.26 17:11</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[루마니아에서 온 편지]어려울 때 도와준 친구가 찐친</t>
+          <t>'단발' 김건희, 직접 쓴 입장문 7분 낭독…'남편' 15번 언급, 끝내 눈물</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021.12.24 09:29</t>
+          <t>2021.12.26 17:09</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>김재원 "文 '박근혜 사면' 환영…대선 불순한 의도 있더라도 우리의 몫"</t>
+          <t>대선 D-74, 열린민주 합당 '더불어민주당'..새해 전 범여권 빅텐트</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021.12.24 09:28</t>
+          <t>2021.12.26 17:09</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>이재명, 朴 사면 논의에 "지금 입장 말하기 부적절"</t>
+          <t>사과하며 울먹인 김건희… 與 "신파 코미디" "악어의 콧물" 맹폭</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021.12.24 09:27</t>
+          <t>2021.12.26 17:08</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>'대장동 핵심' 김문기…이재명 "실제로 기억 나지 않아" 재차 강조</t>
+          <t>김병준 "비주류 노무현도 노핵관에 힘 실어준다 욕 먹어"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021.12.24 09:27</t>
+          <t>2021.12.26 17:08</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>金총리 “꼭 필요한 경우 아니면 대형병원보다 병·의원 찾아달라”</t>
+          <t>이재명 "4대강 예산이면 공공산후조리원 4천 개 건설"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021.12.24 09:26</t>
+          <t>2021.12.26 17:08</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>이재명, 尹 영부인 발언에 "상식 안맞다, 즉흥적으로 하신 듯"</t>
+          <t>이준석 "김건희의 용기, 아쉬운 점 있어도 긍정 평가했으면"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021.12.24 09:26</t>
+          <t>2021.12.26 17:08</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>김 총리 "화이자 먹는 치료제 계약 마무리…30만명 분 이상 협의"(종합)</t>
+          <t>與 “野, 이재명 마타도어 공세… 주가조작 의혹 해명할 사람은 김건희”</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021.12.24 09:25</t>
+          <t>2021.12.26 17:07</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>북한, 1만2천t급 화물선 ‘장수산’호 출항식…“자력갱생의 불길”</t>
+          <t>[뉴스1번지] 김건희, 허위이력 의혹 사과…"모든 것이 저의 불찰"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021.12.24 09:25</t>
+          <t>2021.12.26 17:07</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>조원진 "박근혜 대선 메시지 '침묵'할 듯…윤석열 지지 이유 없어"</t>
+          <t>김은혜 “이재명, ‘대장동 성과’ 인정하고 故김문기에 표창 수여”</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021.12.24 09:25</t>
+          <t>2021.12.26 17:07</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -746,34 +746,34 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>이재명 "박근혜 사면, 아직 결정된 건 아닐 듯…상황 파악 안돼"</t>
+          <t>특별사면 받은 박근혜 전 대통령 거처는 어디로? 아직 준비된 곳 없어</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021.12.24 09:25</t>
+          <t>2021.12.26 17:06</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>김 총리 "코로나 경구용 치료제 30만명분 구매 마무리 단계"</t>
+          <t>與 “주식시장 불공정행위, 사전 감시와 사후 처벌 강화돼야”</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021.12.24 09:25</t>
+          <t>2021.12.26 17:06</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -782,37 +782,37 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>김 총리 "화이자 먹는 치료제 계약 마무리 단계...7만 명분 이상"</t>
+          <t>이재명 37.8% vs 윤석열 37.5%…대선 70여일 앞두고 초접전</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021.12.24 09:24</t>
+          <t>2021.12.26 17:06</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>민주당 "이철희·송영길, 박근혜 사면논의 사실무근"</t>
+          <t>이재명 "한국주식 저평가는 작전주 탓…시장 불투명"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021.12.24 09:24</t>
+          <t>2021.12.26 17:03</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
